--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H2">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I2">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J2">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>0.004428764863555555</v>
+        <v>2.172953748746667</v>
       </c>
       <c r="R2">
-        <v>0.039858883772</v>
+        <v>19.55658373872</v>
       </c>
       <c r="S2">
-        <v>9.543280249548901E-08</v>
+        <v>3.047665632027533E-05</v>
       </c>
       <c r="T2">
-        <v>9.543280249548898E-08</v>
+        <v>3.047665632027533E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H3">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I3">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J3">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.002032440652888889</v>
+        <v>0.08734621640888889</v>
       </c>
       <c r="R3">
-        <v>0.018291965876</v>
+        <v>0.78611594768</v>
       </c>
       <c r="S3">
-        <v>4.379584678497235E-08</v>
+        <v>1.225070077955189E-06</v>
       </c>
       <c r="T3">
-        <v>4.379584678497233E-08</v>
+        <v>1.225070077955189E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H4">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I4">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J4">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>2.788947767662</v>
+        <v>111.1821362059955</v>
       </c>
       <c r="R4">
-        <v>25.100529908958</v>
+        <v>1000.63922585396</v>
       </c>
       <c r="S4">
-        <v>6.009736567225273E-05</v>
+        <v>0.001559379603021274</v>
       </c>
       <c r="T4">
-        <v>6.00973656722527E-05</v>
+        <v>0.001559379603021274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H5">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I5">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J5">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>0.07448469191122221</v>
+        <v>1.58171120268</v>
       </c>
       <c r="R5">
-        <v>0.670362227201</v>
+        <v>14.23540082412</v>
       </c>
       <c r="S5">
-        <v>1.605026031206872E-06</v>
+        <v>2.218421296348894E-05</v>
       </c>
       <c r="T5">
-        <v>1.605026031206872E-06</v>
+        <v>2.218421296348894E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H6">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I6">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J6">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>2.900501533817111</v>
+        <v>153.5429400636445</v>
       </c>
       <c r="R6">
-        <v>26.104513804354</v>
+        <v>1381.8864605728</v>
       </c>
       <c r="S6">
-        <v>6.250117099068677E-05</v>
+        <v>0.002153508981690655</v>
       </c>
       <c r="T6">
-        <v>6.250117099068674E-05</v>
+        <v>0.002153508981690655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.04575233333333333</v>
+        <v>1.966253333333333</v>
       </c>
       <c r="H7">
-        <v>0.137257</v>
+        <v>5.89876</v>
       </c>
       <c r="I7">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="J7">
-        <v>0.0002054062339532693</v>
+        <v>0.004409978591445245</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>3.761923751178667</v>
+        <v>45.85977788102667</v>
       </c>
       <c r="R7">
-        <v>33.857313760608</v>
+        <v>412.73800092924</v>
       </c>
       <c r="S7">
-        <v>8.106344260984254E-05</v>
+        <v>0.0006432040673715963</v>
       </c>
       <c r="T7">
-        <v>8.106344260984251E-05</v>
+        <v>0.0006432040673715963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>0.3791</v>
       </c>
       <c r="I8">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J8">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>0.01223212484444444</v>
+        <v>0.1396508361333333</v>
       </c>
       <c r="R8">
-        <v>0.1100891236</v>
+        <v>1.2568575252</v>
       </c>
       <c r="S8">
-        <v>2.635827347679163E-07</v>
+        <v>1.958665958780553E-06</v>
       </c>
       <c r="T8">
-        <v>2.635827347679162E-07</v>
+        <v>1.958665958780553E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.3791</v>
       </c>
       <c r="I9">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J9">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>0.005613544311111111</v>
@@ -1013,10 +1013,10 @@
         <v>0.0505218988</v>
       </c>
       <c r="S9">
-        <v>1.209629054706355E-07</v>
+        <v>7.873249065105415E-08</v>
       </c>
       <c r="T9">
-        <v>1.209629054706355E-07</v>
+        <v>7.873249065105416E-08</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.3791</v>
       </c>
       <c r="I10">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J10">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>7.7029958306</v>
+        <v>7.145425112344443</v>
       </c>
       <c r="R10">
-        <v>69.32696247540001</v>
+        <v>64.3088260111</v>
       </c>
       <c r="S10">
-        <v>0.0001659872452869508</v>
+        <v>0.0001002178097609268</v>
       </c>
       <c r="T10">
-        <v>0.0001659872452869508</v>
+        <v>0.0001002178097609269</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.3791</v>
       </c>
       <c r="I11">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J11">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>0.2057246384777777</v>
+        <v>0.1016530113</v>
       </c>
       <c r="R11">
-        <v>1.8515217463</v>
+        <v>0.9148771016999998</v>
       </c>
       <c r="S11">
-        <v>4.43303706499869E-06</v>
+        <v>1.4257293286146E-06</v>
       </c>
       <c r="T11">
-        <v>4.433037064998689E-06</v>
+        <v>1.4257293286146E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.3791</v>
       </c>
       <c r="I12">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J12">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>8.011104216688887</v>
+        <v>9.867858427555555</v>
       </c>
       <c r="R12">
-        <v>72.0999379502</v>
+        <v>88.810725848</v>
       </c>
       <c r="S12">
-        <v>0.0001726264884309678</v>
+        <v>0.0001384011648141181</v>
       </c>
       <c r="T12">
-        <v>0.0001726264884309678</v>
+        <v>0.0001384011648141181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.3791</v>
       </c>
       <c r="I13">
-        <v>0.0005673262805662692</v>
+        <v>0.0002834193769566641</v>
       </c>
       <c r="J13">
-        <v>0.0005673262805662691</v>
+        <v>0.0002834193769566642</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>10.39032831893333</v>
+        <v>2.947304483433333</v>
       </c>
       <c r="R13">
-        <v>93.51295487040001</v>
+        <v>26.5257403509</v>
       </c>
       <c r="S13">
-        <v>0.0002238949641431133</v>
+        <v>4.133727460357297E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002238949641431133</v>
+        <v>4.133727460357298E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H14">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I14">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J14">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>10.31879575226933</v>
+        <v>308.4584335661681</v>
       </c>
       <c r="R14">
-        <v>92.86916177042399</v>
+        <v>2776.125902095512</v>
       </c>
       <c r="S14">
-        <v>0.0002223535516913896</v>
+        <v>0.004326268644378114</v>
       </c>
       <c r="T14">
-        <v>0.0002223535516913895</v>
+        <v>0.004326268644378114</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H15">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I15">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J15">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>4.735482831421333</v>
+        <v>12.39910288332534</v>
       </c>
       <c r="R15">
-        <v>42.61934548279199</v>
+        <v>111.591925949928</v>
       </c>
       <c r="S15">
-        <v>0.0001020420843496746</v>
+        <v>0.0001739030098881762</v>
       </c>
       <c r="T15">
-        <v>0.0001020420843496746</v>
+        <v>0.0001739030098881762</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H16">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I16">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J16">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>6498.105739383805</v>
+        <v>15782.69560243641</v>
       </c>
       <c r="R16">
-        <v>58482.95165445423</v>
+        <v>142044.2604219277</v>
       </c>
       <c r="S16">
-        <v>0.1400237900920203</v>
+        <v>0.22135942376151</v>
       </c>
       <c r="T16">
-        <v>0.1400237900920203</v>
+        <v>0.22135942376151</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H17">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I17">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J17">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>173.5455248092713</v>
+        <v>224.529472941678</v>
       </c>
       <c r="R17">
-        <v>1561.909723283442</v>
+        <v>2020.765256475102</v>
       </c>
       <c r="S17">
-        <v>0.003739628610538317</v>
+        <v>0.003149127119968837</v>
       </c>
       <c r="T17">
-        <v>0.003739628610538316</v>
+        <v>0.003149127119968837</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H18">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I18">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J18">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>6758.020312366318</v>
+        <v>21795.96082267899</v>
       </c>
       <c r="R18">
-        <v>60822.18281129686</v>
+        <v>196163.6474041109</v>
       </c>
       <c r="S18">
-        <v>0.1456245336115636</v>
+        <v>0.3056981804357846</v>
       </c>
       <c r="T18">
-        <v>0.1456245336115636</v>
+        <v>0.3056981804357846</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>106.600598</v>
+        <v>279.1165820000001</v>
       </c>
       <c r="H19">
-        <v>319.801794</v>
+        <v>837.3497460000001</v>
       </c>
       <c r="I19">
-        <v>0.4785860256091802</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="J19">
-        <v>0.4785860256091801</v>
+        <v>0.626011984453023</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>8765.090046541505</v>
+        <v>6509.956899466007</v>
       </c>
       <c r="R19">
-        <v>78885.81041887353</v>
+        <v>58589.61209519406</v>
       </c>
       <c r="S19">
-        <v>0.1888736776590169</v>
+        <v>0.09130508148149326</v>
       </c>
       <c r="T19">
-        <v>0.1888736776590169</v>
+        <v>0.09130508148149326</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H20">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I20">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J20">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>0.002545966264444444</v>
+        <v>0.038606401816</v>
       </c>
       <c r="R20">
-        <v>0.02291369638</v>
+        <v>0.347457616344</v>
       </c>
       <c r="S20">
-        <v>5.486150273506312E-08</v>
+        <v>5.41472196813821E-07</v>
       </c>
       <c r="T20">
-        <v>5.486150273506311E-08</v>
+        <v>5.41472196813821E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H21">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I21">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J21">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>0.001168390171111111</v>
+        <v>0.001551861437333333</v>
       </c>
       <c r="R21">
-        <v>0.01051551154</v>
+        <v>0.013966752936</v>
       </c>
       <c r="S21">
-        <v>2.517694026948165E-08</v>
+        <v>2.176555654236818E-08</v>
       </c>
       <c r="T21">
-        <v>2.517694026948164E-08</v>
+        <v>2.176555654236818E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H22">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I22">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J22">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>1.60328379323</v>
+        <v>1.975349096871333</v>
       </c>
       <c r="R22">
-        <v>14.42955413907</v>
+        <v>17.778141871842</v>
       </c>
       <c r="S22">
-        <v>3.454820255702151E-05</v>
+        <v>2.770516195875667E-05</v>
       </c>
       <c r="T22">
-        <v>3.45482025570215E-05</v>
+        <v>2.770516195875668E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H23">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I23">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J23">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>0.04281905196277777</v>
+        <v>0.02810192268599999</v>
       </c>
       <c r="R23">
-        <v>0.385371467665</v>
+        <v>0.252917304174</v>
       </c>
       <c r="S23">
-        <v>9.226821145178624E-07</v>
+        <v>3.941421395343373E-07</v>
       </c>
       <c r="T23">
-        <v>9.226821145178623E-07</v>
+        <v>3.941421395343374E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H24">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I24">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J24">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>1.667412762378889</v>
+        <v>2.727964386506667</v>
       </c>
       <c r="R24">
-        <v>15.00671486141</v>
+        <v>24.55167947856</v>
       </c>
       <c r="S24">
-        <v>3.593007931850571E-05</v>
+        <v>3.826093082260407E-05</v>
       </c>
       <c r="T24">
-        <v>3.59300793185057E-05</v>
+        <v>3.826093082260407E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.02630166666666666</v>
+        <v>0.034934</v>
       </c>
       <c r="H25">
-        <v>0.07890499999999999</v>
+        <v>0.104802</v>
       </c>
       <c r="I25">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550069E-05</v>
       </c>
       <c r="J25">
-        <v>0.0001180819840888458</v>
+        <v>7.835114097550071E-05</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>2.162618981813333</v>
+        <v>0.814780808422</v>
       </c>
       <c r="R25">
-        <v>19.46357083632</v>
+        <v>7.333027275798</v>
       </c>
       <c r="S25">
-        <v>4.660098165579624E-05</v>
+        <v>1.142766830124942E-05</v>
       </c>
       <c r="T25">
-        <v>4.660098165579623E-05</v>
+        <v>1.142766830124942E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H26">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I26">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J26">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N26">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q26">
-        <v>4.875090286404443</v>
+        <v>35.21719279781333</v>
       </c>
       <c r="R26">
-        <v>43.87581257764</v>
+        <v>316.95473518032</v>
       </c>
       <c r="S26">
-        <v>0.0001050504018126173</v>
+        <v>0.0004939370118130219</v>
       </c>
       <c r="T26">
-        <v>0.0001050504018126173</v>
+        <v>0.0004939370118130219</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H27">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I27">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J27">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.133268</v>
       </c>
       <c r="O27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q27">
-        <v>2.237267497791111</v>
+        <v>1.415625410897778</v>
       </c>
       <c r="R27">
-        <v>20.13540748012</v>
+        <v>12.74062869808</v>
       </c>
       <c r="S27">
-        <v>4.820953783373009E-05</v>
+        <v>1.98547848296655E-05</v>
       </c>
       <c r="T27">
-        <v>4.820953783373007E-05</v>
+        <v>1.98547848296655E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H28">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I28">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J28">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N28">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O28">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P28">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q28">
-        <v>3070.01446008194</v>
+        <v>1801.935604334751</v>
       </c>
       <c r="R28">
-        <v>27630.13014073746</v>
+        <v>16217.42043901276</v>
       </c>
       <c r="S28">
-        <v>0.06615390354955113</v>
+        <v>0.0252729595170874</v>
       </c>
       <c r="T28">
-        <v>0.0661539035495511</v>
+        <v>0.0252729595170874</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H29">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I29">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J29">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N29">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q29">
-        <v>81.99116665920776</v>
+        <v>25.63488910308</v>
       </c>
       <c r="R29">
-        <v>737.92049993287</v>
+        <v>230.71400192772</v>
       </c>
       <c r="S29">
-        <v>0.001766778561343855</v>
+        <v>0.0003595408809108636</v>
       </c>
       <c r="T29">
-        <v>0.001766778561343855</v>
+        <v>0.0003595408809108636</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H30">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I30">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J30">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N30">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q30">
-        <v>3192.810476251108</v>
+        <v>2488.479713884089</v>
       </c>
       <c r="R30">
-        <v>28735.29428625998</v>
+        <v>22396.3174249568</v>
       </c>
       <c r="S30">
-        <v>0.06879996138268181</v>
+        <v>0.03490205028237087</v>
       </c>
       <c r="T30">
-        <v>0.06879996138268178</v>
+        <v>0.03490205028237087</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>50.36319666666666</v>
+        <v>31.86718666666667</v>
       </c>
       <c r="H31">
-        <v>151.08959</v>
+        <v>95.60156000000001</v>
       </c>
       <c r="I31">
-        <v>0.2261068191162822</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="J31">
-        <v>0.2261068191162821</v>
+        <v>0.07147278968948864</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N31">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O31">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P31">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q31">
-        <v>4141.045754874774</v>
+        <v>743.2521931184933</v>
       </c>
       <c r="R31">
-        <v>37269.41179387296</v>
+        <v>6689.26973806644</v>
       </c>
       <c r="S31">
-        <v>0.08923291568305906</v>
+        <v>0.01042444721247681</v>
       </c>
       <c r="T31">
-        <v>0.08923291568305904</v>
+        <v>0.01042444721247681</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H32">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I32">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J32">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N32">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q32">
-        <v>6.347912233187999</v>
+        <v>146.7088310178493</v>
       </c>
       <c r="R32">
-        <v>57.13121009869199</v>
+        <v>1320.379479160644</v>
       </c>
       <c r="S32">
-        <v>0.0001367873601494783</v>
+        <v>0.002057657520165477</v>
       </c>
       <c r="T32">
-        <v>0.0001367873601494783</v>
+        <v>0.002057657520165477</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H33">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I33">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J33">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.133268</v>
       </c>
       <c r="O33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q33">
-        <v>2.913172245804</v>
+        <v>5.897254513848444</v>
       </c>
       <c r="R33">
-        <v>26.218550212236</v>
+        <v>53.075290624636</v>
       </c>
       <c r="S33">
-        <v>6.277420457720037E-05</v>
+        <v>8.27116541966973E-05</v>
       </c>
       <c r="T33">
-        <v>6.277420457720035E-05</v>
+        <v>8.27116541966973E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H34">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I34">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J34">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N34">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O34">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P34">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q34">
-        <v>3997.501831210482</v>
+        <v>7506.55702739054</v>
       </c>
       <c r="R34">
-        <v>35977.51648089434</v>
+        <v>67559.01324651485</v>
       </c>
       <c r="S34">
-        <v>0.08613977361331189</v>
+        <v>0.1052828477386063</v>
       </c>
       <c r="T34">
-        <v>0.08613977361331186</v>
+        <v>0.1052828477386063</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H35">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I35">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J35">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N35">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q35">
-        <v>106.761659635479</v>
+        <v>106.790584791261</v>
       </c>
       <c r="R35">
-        <v>960.854936719311</v>
+        <v>961.1152631213488</v>
       </c>
       <c r="S35">
-        <v>0.002300543084128332</v>
+        <v>0.001497786113856177</v>
       </c>
       <c r="T35">
-        <v>0.002300543084128331</v>
+        <v>0.001497786113856177</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H36">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I36">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J36">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N36">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q36">
-        <v>4157.395963920366</v>
+        <v>10366.58293384006</v>
       </c>
       <c r="R36">
-        <v>37416.56367528329</v>
+        <v>93299.24640456056</v>
       </c>
       <c r="S36">
-        <v>0.08958523654873611</v>
+        <v>0.1453960009376659</v>
       </c>
       <c r="T36">
-        <v>0.08958523654873608</v>
+        <v>0.1453960009376659</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>65.578509</v>
+        <v>132.7532756666667</v>
       </c>
       <c r="H37">
-        <v>196.735527</v>
+        <v>398.259827</v>
       </c>
       <c r="I37">
-        <v>0.2944163407759294</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="J37">
-        <v>0.2944163407759293</v>
+        <v>0.2977434767481109</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N37">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O37">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P37">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q37">
-        <v>5392.104240380832</v>
+        <v>3096.26213054203</v>
       </c>
       <c r="R37">
-        <v>48528.93816342749</v>
+        <v>27866.35917487827</v>
       </c>
       <c r="S37">
-        <v>0.1161912259650264</v>
+        <v>0.04342647278362034</v>
       </c>
       <c r="T37">
-        <v>0.1161912259650264</v>
+        <v>0.04342647278362034</v>
       </c>
     </row>
   </sheetData>
